--- a/Team-Data/2011-12/2-14-2011-12.xlsx
+++ b/Team-Data/2011-12/2-14-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,85 +733,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.621</v>
+        <v>0.643</v>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.449</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>0.385</v>
+        <v>0.392</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R2" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T2" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U2" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="V2" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -762,10 +829,10 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -774,52 +841,52 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
         <v>3</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>3.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -935,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
@@ -965,16 +1032,16 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>19</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>18</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1138,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
@@ -1150,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1168,13 +1235,13 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -1212,82 +1279,82 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.774</v>
+        <v>0.767</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.6</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15.9</v>
-      </c>
       <c r="P5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S5" t="n">
         <v>32</v>
       </c>
       <c r="T5" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U5" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="V5" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1305,16 +1372,16 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
       </c>
       <c r="AL5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1323,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="AO5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
       </c>
-      <c r="AP5" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1341,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
@@ -1350,19 +1417,19 @@
         <v>20</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>9</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -1490,16 +1557,16 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
         <v>10</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1526,13 +1593,13 @@
         <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -1654,31 +1721,31 @@
         <v>3.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
@@ -1687,19 +1754,19 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1708,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1723,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -1758,43 +1825,43 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.586</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O8" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P8" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.741</v>
@@ -1803,43 +1870,43 @@
         <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1860,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1869,7 +1936,7 @@
         <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1881,22 +1948,22 @@
         <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.267</v>
+        <v>0.276</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="J9" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="K9" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L9" t="n">
         <v>4.3</v>
@@ -1970,28 +2037,28 @@
         <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="O9" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P9" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.778</v>
       </c>
       <c r="R9" t="n">
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="T9" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U9" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V9" t="n">
         <v>16.3</v>
@@ -2006,16 +2073,16 @@
         <v>5.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.40000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>2</v>
@@ -2024,25 +2091,25 @@
         <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
         <v>27</v>
@@ -2051,13 +2118,13 @@
         <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
@@ -2066,28 +2133,28 @@
         <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU9" t="n">
         <v>24</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2218,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>4</v>
@@ -2236,16 +2303,16 @@
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>27</v>
@@ -2263,19 +2330,19 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB10" t="n">
         <v>4</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -2304,67 +2371,67 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.552</v>
+        <v>0.571</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="J11" t="n">
-        <v>84.40000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O11" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="P11" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U11" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5</v>
@@ -2373,46 +2440,46 @@
         <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,16 +2488,16 @@
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>13</v>
@@ -2442,7 +2509,7 @@
         <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -2454,10 +2521,10 @@
         <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.607</v>
+        <v>0.63</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,67 +2571,67 @@
         <v>34.6</v>
       </c>
       <c r="J12" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.429</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
         <v>15.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P12" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
         <v>9</v>
@@ -2573,25 +2640,25 @@
         <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN12" t="n">
         <v>9</v>
@@ -2600,22 +2667,22 @@
         <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV12" t="n">
         <v>17</v>
@@ -2624,10 +2691,10 @@
         <v>8</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>24</v>
@@ -2639,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>10</v>
@@ -2791,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT13" t="n">
         <v>20</v>
@@ -2806,10 +2873,10 @@
         <v>12</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.586</v>
+        <v>0.571</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I14" t="n">
         <v>35.4</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K14" t="n">
         <v>0.447</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M14" t="n">
         <v>16.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.298</v>
+        <v>0.291</v>
       </c>
       <c r="O14" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="P14" t="n">
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.742</v>
+        <v>0.746</v>
       </c>
       <c r="R14" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="U14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V14" t="n">
         <v>14.8</v>
@@ -2910,28 +2977,28 @@
         <v>5.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>11</v>
@@ -2943,13 +3010,13 @@
         <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,19 +3025,19 @@
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,28 +3049,28 @@
         <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.517</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J15" t="n">
-        <v>82.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
         <v>3.4</v>
@@ -3062,43 +3129,43 @@
         <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.314</v>
+        <v>0.307</v>
       </c>
       <c r="O15" t="n">
         <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T15" t="n">
-        <v>42.1</v>
+        <v>42.4</v>
       </c>
       <c r="U15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>19.8</v>
@@ -3107,22 +3174,22 @@
         <v>92.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -3140,19 +3207,19 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>14</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AS15" t="n">
         <v>22</v>
@@ -3164,22 +3231,22 @@
         <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.767</v>
+        <v>0.759</v>
       </c>
       <c r="H16" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I16" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J16" t="n">
-        <v>78.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.485</v>
@@ -3244,34 +3311,34 @@
         <v>14.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O16" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="P16" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X16" t="n">
         <v>4.8</v>
@@ -3280,16 +3347,16 @@
         <v>4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>2</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3322,22 +3389,22 @@
         <v>24</v>
       </c>
       <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
         <v>3</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>2</v>
       </c>
       <c r="AP16" t="n">
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
@@ -3346,19 +3413,19 @@
         <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3486,10 +3553,10 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3510,19 +3577,19 @@
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
         <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
@@ -3534,19 +3601,19 @@
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>0.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>20</v>
@@ -3671,19 +3738,19 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
@@ -3698,10 +3765,10 @@
         <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3710,16 +3777,16 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ18" t="n">
         <v>11</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3859,7 +3926,7 @@
         <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3871,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>15</v>
@@ -3880,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3892,13 +3959,13 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
@@ -3910,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4050,16 +4117,16 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4068,25 +4135,25 @@
         <v>27</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY20" t="n">
         <v>22</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -4124,19 +4191,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.483</v>
+        <v>0.464</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
         <v>34.6</v>
@@ -4148,64 +4215,64 @@
         <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.304</v>
+        <v>0.302</v>
       </c>
       <c r="O21" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P21" t="n">
         <v>25.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.763</v>
+        <v>0.767</v>
       </c>
       <c r="R21" t="n">
         <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="T21" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V21" t="n">
         <v>16.5</v>
       </c>
       <c r="W21" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>4.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
@@ -4217,22 +4284,22 @@
         <v>14</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4241,7 +4308,7 @@
         <v>6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4250,7 +4317,7 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4262,10 +4329,10 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -4306,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.786</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
         <v>77.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M22" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="N22" t="n">
         <v>0.348</v>
@@ -4342,34 +4409,34 @@
         <v>21.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.791</v>
+        <v>0.797</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S22" t="n">
         <v>33</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
@@ -4378,13 +4445,13 @@
         <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4408,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM22" t="n">
         <v>15</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>16</v>
       </c>
       <c r="AN22" t="n">
         <v>13</v>
@@ -4426,16 +4493,16 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>23</v>
@@ -4459,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>1.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>6</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4641,7 +4708,7 @@
         <v>20</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>9.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4760,10 +4827,10 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4778,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4787,7 +4854,7 @@
         <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
         <v>28</v>
@@ -4799,7 +4866,7 @@
         <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -4852,115 +4919,115 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>0.414</v>
+        <v>0.429</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J25" t="n">
-        <v>81.40000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.448</v>
       </c>
       <c r="L25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O25" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P25" t="n">
         <v>18.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
         <v>5.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
         <v>28</v>
       </c>
       <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>14</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
       <c r="AK25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN25" t="n">
         <v>15</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>29</v>
@@ -4969,37 +5036,37 @@
         <v>30</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.517</v>
+        <v>0.536</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N26" t="n">
         <v>0.311</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="T26" t="n">
-        <v>42</v>
+        <v>42.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
         <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>14</v>
@@ -5130,10 +5197,10 @@
         <v>8</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5157,13 +5224,13 @@
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
@@ -5172,22 +5239,22 @@
         <v>3</v>
       </c>
       <c r="AX26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="n">
         <v>12</v>
       </c>
-      <c r="AY26" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
         <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.357</v>
+        <v>0.37</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="J27" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.406</v>
+        <v>0.404</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.31</v>
+        <v>0.303</v>
       </c>
       <c r="O27" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R27" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="S27" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
         <v>8.199999999999999</v>
@@ -5285,16 +5352,16 @@
         <v>19.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>92.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5330,10 +5397,10 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,19 +5409,19 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
         <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5366,10 +5433,10 @@
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -5398,49 +5465,49 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
         <v>7.6</v>
       </c>
       <c r="M28" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.721</v>
+        <v>0.725</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
         <v>31.8</v>
@@ -5455,37 +5522,37 @@
         <v>13.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
         <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
         <v>98</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE28" t="n">
         <v>5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
@@ -5494,7 +5561,7 @@
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>6</v>
@@ -5503,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN28" t="n">
         <v>7</v>
@@ -5512,31 +5579,31 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
       </c>
       <c r="AW28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX28" t="n">
         <v>24</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>21</v>
@@ -5545,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -5580,73 +5647,73 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.424</v>
+        <v>0.421</v>
       </c>
       <c r="L29" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O29" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="P29" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.755</v>
+        <v>0.759</v>
       </c>
       <c r="R29" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S29" t="n">
         <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U29" t="n">
         <v>20.6</v>
       </c>
       <c r="V29" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
         <v>18.4</v>
@@ -5655,7 +5722,7 @@
         <v>88.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD29" t="n">
         <v>2</v>
@@ -5670,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>30</v>
@@ -5682,7 +5749,7 @@
         <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
         <v>18</v>
@@ -5691,7 +5758,7 @@
         <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
@@ -5703,25 +5770,25 @@
         <v>19</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.453</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.294</v>
+        <v>0.297</v>
       </c>
       <c r="O30" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P30" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.74</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
         <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.2</v>
@@ -5822,46 +5889,46 @@
         <v>7.9</v>
       </c>
       <c r="X30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5882,13 +5949,13 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>14</v>
@@ -5903,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5912,10 +5979,10 @@
         <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.241</v>
+        <v>0.214</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>35.6</v>
+        <v>35.2</v>
       </c>
       <c r="J31" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.427</v>
+        <v>0.421</v>
       </c>
       <c r="L31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M31" t="n">
         <v>14.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.308</v>
+        <v>0.299</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.728</v>
+        <v>0.724</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U31" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="V31" t="n">
         <v>15.7</v>
@@ -6004,55 +6071,55 @@
         <v>8.4</v>
       </c>
       <c r="X31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.5</v>
+        <v>90.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL31" t="n">
         <v>26</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>25</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>21</v>
@@ -6061,13 +6128,13 @@
         <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6076,7 +6143,7 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
@@ -6097,7 +6164,7 @@
         <v>25</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-14-2011-12</t>
+          <t>2012-02-14</t>
         </is>
       </c>
     </row>
